--- a/get122/NotasSemVR.xlsx
+++ b/get122/NotasSemVR.xlsx
@@ -563,19 +563,18 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I68" activeCellId="0" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.54081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="2" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.0816326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1143,16 +1142,18 @@
         <v>9.66</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="H20" s="2" t="n">
         <f aca="false">IF(F20+G20&lt;=10,F20+G20,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">ROUND((H20+E20)/2, 2)</f>
-        <v>7.83</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2130,7 +2131,7 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I55" s="3" t="n">
         <f aca="false">AVERAGE(I2:I52)</f>
-        <v>6.40490196078431</v>
+        <v>6.44411764705882</v>
       </c>
     </row>
   </sheetData>
